--- a/문서/Combat.xlsx
+++ b/문서/Combat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1EA7B2-0262-4BC1-9F8C-8F20E98B3CD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8BF4EE-4560-4C8C-9BC1-726AB323B65E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="2415" windowWidth="21600" windowHeight="11295" xr2:uid="{080F8798-C451-4B1C-9A54-082B81AA153A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{080F8798-C451-4B1C-9A54-082B81AA153A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -910,7 +910,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -943,10 +943,10 @@
         <v>101</v>
       </c>
       <c r="E2">
-        <v>1.03</v>
+        <v>0.03</v>
       </c>
       <c r="F2">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -963,10 +963,10 @@
         <v>101</v>
       </c>
       <c r="E3">
-        <v>1.02</v>
+        <v>0.05</v>
       </c>
       <c r="F3">
-        <v>1.1000000000000001</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -983,10 +983,10 @@
         <v>102</v>
       </c>
       <c r="E4">
-        <v>1.02</v>
+        <v>0.08</v>
       </c>
       <c r="F4">
-        <v>1.1499999999999999</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>

--- a/문서/Combat.xlsx
+++ b/문서/Combat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8BF4EE-4560-4C8C-9BC1-726AB323B65E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E5E3DB-8A16-4997-B49E-15482EABC952}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{080F8798-C451-4B1C-9A54-082B81AA153A}"/>
+    <workbookView xWindow="-315" yWindow="2775" windowWidth="23910" windowHeight="8940" xr2:uid="{080F8798-C451-4B1C-9A54-082B81AA153A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -910,7 +910,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -963,7 +963,7 @@
         <v>101</v>
       </c>
       <c r="E3">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F3">
         <v>0.12</v>
@@ -983,7 +983,7 @@
         <v>102</v>
       </c>
       <c r="E4">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F4">
         <v>0.15</v>

--- a/문서/Combat.xlsx
+++ b/문서/Combat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E5E3DB-8A16-4997-B49E-15482EABC952}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970B7699-3A9E-4AD5-BAFA-48ED68EB300F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-315" yWindow="2775" windowWidth="23910" windowHeight="8940" xr2:uid="{080F8798-C451-4B1C-9A54-082B81AA153A}"/>
+    <workbookView xWindow="2130" yWindow="3555" windowWidth="23910" windowHeight="8940" xr2:uid="{080F8798-C451-4B1C-9A54-082B81AA153A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -910,7 +910,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -943,7 +943,7 @@
         <v>101</v>
       </c>
       <c r="E2">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F2">
         <v>0.1</v>
@@ -963,7 +963,7 @@
         <v>101</v>
       </c>
       <c r="E3">
-        <v>0.04</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F3">
         <v>0.12</v>
@@ -983,7 +983,7 @@
         <v>102</v>
       </c>
       <c r="E4">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F4">
         <v>0.15</v>

--- a/문서/Combat.xlsx
+++ b/문서/Combat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970B7699-3A9E-4AD5-BAFA-48ED68EB300F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4838CAF6-70DC-4222-8D68-3EA20DE84F6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="3555" windowWidth="23910" windowHeight="8940" xr2:uid="{080F8798-C451-4B1C-9A54-082B81AA153A}"/>
+    <workbookView xWindow="2370" yWindow="465" windowWidth="23910" windowHeight="11175" xr2:uid="{080F8798-C451-4B1C-9A54-082B81AA153A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -907,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE1D95B-90D5-47C0-958C-9A07DD9D9A23}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -986,6 +986,125 @@
         <v>0.05</v>
       </c>
       <c r="F4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5">
+        <v>101</v>
+      </c>
+      <c r="C5">
+        <v>101</v>
+      </c>
+      <c r="E5">
+        <v>0.04</v>
+      </c>
+      <c r="F5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="C6">
+        <v>101</v>
+      </c>
+      <c r="D6">
+        <v>101</v>
+      </c>
+      <c r="E6">
+        <v>0.04</v>
+      </c>
+      <c r="F6">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7">
+        <v>101</v>
+      </c>
+      <c r="C7">
+        <v>101</v>
+      </c>
+      <c r="D7">
+        <v>101</v>
+      </c>
+      <c r="E7">
+        <v>0.04</v>
+      </c>
+      <c r="F7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1007</v>
+      </c>
+      <c r="C8">
+        <v>102</v>
+      </c>
+      <c r="E8">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1008</v>
+      </c>
+      <c r="C9">
+        <v>103</v>
+      </c>
+      <c r="E9">
+        <v>0.06</v>
+      </c>
+      <c r="F9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1009</v>
+      </c>
+      <c r="B10">
+        <v>101</v>
+      </c>
+      <c r="D10">
+        <v>101</v>
+      </c>
+      <c r="E10">
+        <v>0.04</v>
+      </c>
+      <c r="F10">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1010</v>
+      </c>
+      <c r="B11">
+        <v>102</v>
+      </c>
+      <c r="C11">
+        <v>103</v>
+      </c>
+      <c r="D11">
+        <v>102</v>
+      </c>
+      <c r="E11">
+        <v>0.04</v>
+      </c>
+      <c r="F11">
         <v>0.15</v>
       </c>
     </row>
